--- a/opt/Cocktails_2d.xlsx
+++ b/opt/Cocktails_2d.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1960E87C-B900-4D9A-8A4A-535CBA774942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC977B43-8861-44D6-8391-06BDB77F874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocktails_2d" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">0</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cocktail</t>
   </si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>Variante 1</t>
+  </si>
+  <si>
+    <t>Verbrauchskoeffizienten</t>
   </si>
   <si>
     <t>Zutaten</t>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -131,6 +137,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,12 +472,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{633C80D6-70E1-4F07-A5AE-EE41E3B23981}">
+  <we:reference id="WA104100404" version="3.0.0.1" store="en-us" storeType="omex"/>
+  <we:alternateReferences>
+    <we:reference id="WA104100404" version="3.0.0.1" store="en-us" storeType="omex"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="UniqueID" value="&quot;20253131744567947822&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -517,35 +553,39 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -582,6 +622,9 @@
       <c r="F24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>